--- a/data/pca/factorExposure/factorExposure_2017-05-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-05-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02269387630891858</v>
+        <v>-0.01044705637207643</v>
       </c>
       <c r="C2">
-        <v>-0.008261729733782117</v>
+        <v>0.04508628537965312</v>
       </c>
       <c r="D2">
-        <v>0.03623759629337817</v>
+        <v>-0.02968124218429837</v>
       </c>
       <c r="E2">
-        <v>0.00600691214841464</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03340000437003553</v>
+      </c>
+      <c r="F2">
+        <v>-0.009766602692524679</v>
+      </c>
+      <c r="G2">
+        <v>0.09419254205709081</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01753442667684301</v>
+        <v>-0.04275973738294186</v>
       </c>
       <c r="C3">
-        <v>0.02806587075443013</v>
+        <v>0.1019212316478472</v>
       </c>
       <c r="D3">
-        <v>0.09971778819791445</v>
+        <v>-0.01771815230130742</v>
       </c>
       <c r="E3">
-        <v>0.03808115078994798</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09873902601126108</v>
+      </c>
+      <c r="F3">
+        <v>-0.006864724382543339</v>
+      </c>
+      <c r="G3">
+        <v>0.1851176293735677</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02554865325639738</v>
+        <v>-0.05548684490453068</v>
       </c>
       <c r="C4">
-        <v>0.007714836715019228</v>
+        <v>0.06813137544170675</v>
       </c>
       <c r="D4">
-        <v>0.0878583792053152</v>
+        <v>-0.02441330352980177</v>
       </c>
       <c r="E4">
-        <v>-0.01513166386778349</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02731531600587693</v>
+      </c>
+      <c r="F4">
+        <v>-0.01246779380997507</v>
+      </c>
+      <c r="G4">
+        <v>0.0954614580483976</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01379133608697723</v>
+        <v>-0.03695114025247957</v>
       </c>
       <c r="C6">
-        <v>-0.008473736111983109</v>
+        <v>0.05327589709188153</v>
       </c>
       <c r="D6">
-        <v>0.08309456642234625</v>
+        <v>-0.01685391451046009</v>
       </c>
       <c r="E6">
-        <v>-0.01067338793829352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.0314296029693373</v>
+      </c>
+      <c r="F6">
+        <v>-0.01097689705547527</v>
+      </c>
+      <c r="G6">
+        <v>0.0761781839764486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01201617070312081</v>
+        <v>-0.02077949545486405</v>
       </c>
       <c r="C7">
-        <v>0.004070631662340621</v>
+        <v>0.04203050046079174</v>
       </c>
       <c r="D7">
-        <v>0.04299096066788522</v>
+        <v>-0.01335740022477859</v>
       </c>
       <c r="E7">
-        <v>-0.05332522882076265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.004392809763170273</v>
+      </c>
+      <c r="F7">
+        <v>0.003542253533014963</v>
+      </c>
+      <c r="G7">
+        <v>0.1276263261192838</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0009971762167986003</v>
+        <v>-0.003644777371349407</v>
       </c>
       <c r="C8">
-        <v>0.0006458226589605941</v>
+        <v>0.02505895643182647</v>
       </c>
       <c r="D8">
-        <v>0.006838064179132197</v>
+        <v>-0.003886876425820016</v>
       </c>
       <c r="E8">
-        <v>-0.008486108948176254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02295816939095087</v>
+      </c>
+      <c r="F8">
+        <v>-0.007378134662501609</v>
+      </c>
+      <c r="G8">
+        <v>0.06560372480663058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01757620399573817</v>
+        <v>-0.03317098366383888</v>
       </c>
       <c r="C9">
-        <v>0.009875608473347315</v>
+        <v>0.04945760200687217</v>
       </c>
       <c r="D9">
-        <v>0.06290700383112563</v>
+        <v>-0.01662996641415761</v>
       </c>
       <c r="E9">
-        <v>-0.005167701780801505</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01728725625824378</v>
+      </c>
+      <c r="F9">
+        <v>-0.009997805153285631</v>
+      </c>
+      <c r="G9">
+        <v>0.09517674819686715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.03823163874598107</v>
+        <v>-0.09862737515889648</v>
       </c>
       <c r="C10">
-        <v>0.1764828770861718</v>
+        <v>-0.1813832759932452</v>
       </c>
       <c r="D10">
-        <v>-0.09751047809193851</v>
+        <v>0.01476294649043941</v>
       </c>
       <c r="E10">
-        <v>0.02393641507817373</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02081071397025268</v>
+      </c>
+      <c r="F10">
+        <v>0.02201253218724704</v>
+      </c>
+      <c r="G10">
+        <v>0.06001648496076774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0008541937560414726</v>
+        <v>-0.03475463857548258</v>
       </c>
       <c r="C11">
-        <v>-0.0001694031732591003</v>
+        <v>0.05480605129349066</v>
       </c>
       <c r="D11">
-        <v>0.05684454883434284</v>
+        <v>-0.002207829289280658</v>
       </c>
       <c r="E11">
-        <v>-0.0008577973003729906</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.009932786836692841</v>
+      </c>
+      <c r="F11">
+        <v>-0.02147215521404352</v>
+      </c>
+      <c r="G11">
+        <v>0.08385470136300341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.0058936904488787</v>
+        <v>-0.03654599464667023</v>
       </c>
       <c r="C12">
-        <v>0.001433610289886173</v>
+        <v>0.04941036678641403</v>
       </c>
       <c r="D12">
-        <v>0.05210043832863547</v>
+        <v>-0.006146255320546405</v>
       </c>
       <c r="E12">
-        <v>-0.01326294971840611</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.002556870446956445</v>
+      </c>
+      <c r="F12">
+        <v>-0.001780041213624251</v>
+      </c>
+      <c r="G12">
+        <v>0.07867374160275502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02520054718582595</v>
+        <v>-0.01609259222187367</v>
       </c>
       <c r="C13">
-        <v>0.01329302942631865</v>
+        <v>0.04091666613172066</v>
       </c>
       <c r="D13">
-        <v>0.03635003238068889</v>
+        <v>-0.02618338359084833</v>
       </c>
       <c r="E13">
-        <v>0.01242614578194846</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.03011521290882785</v>
+      </c>
+      <c r="F13">
+        <v>-0.0074028343511718</v>
+      </c>
+      <c r="G13">
+        <v>0.1190689991651883</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.009958410128661575</v>
+        <v>-0.008807472997307412</v>
       </c>
       <c r="C14">
-        <v>0.01213215418247282</v>
+        <v>0.02930987966151214</v>
       </c>
       <c r="D14">
-        <v>0.02054141989979251</v>
+        <v>-0.009803571881406853</v>
       </c>
       <c r="E14">
-        <v>-0.002946440375981449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.002392318027839291</v>
+      </c>
+      <c r="F14">
+        <v>0.008824735317286791</v>
+      </c>
+      <c r="G14">
+        <v>0.09822940761698384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.002155680468144639</v>
+        <v>-0.03332450346014272</v>
       </c>
       <c r="C16">
-        <v>0.006276775621409005</v>
+        <v>0.04849766915341668</v>
       </c>
       <c r="D16">
-        <v>0.05076324155146383</v>
+        <v>-0.001833284392576856</v>
       </c>
       <c r="E16">
-        <v>-0.01080542914835498</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.009271027472636799</v>
+      </c>
+      <c r="F16">
+        <v>-0.002867290418262336</v>
+      </c>
+      <c r="G16">
+        <v>0.08682749299718373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01562817597375176</v>
+        <v>-0.02154259428613595</v>
       </c>
       <c r="C19">
-        <v>0.01056572169063071</v>
+        <v>0.05378350660989995</v>
       </c>
       <c r="D19">
-        <v>0.0484648011043159</v>
+        <v>-0.01890214712216532</v>
       </c>
       <c r="E19">
-        <v>-0.006311780528729096</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.06935613942252271</v>
+      </c>
+      <c r="F19">
+        <v>-0.02308581899895597</v>
+      </c>
+      <c r="G19">
+        <v>0.1318923886581617</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01121063661136553</v>
+        <v>-0.01491606719133518</v>
       </c>
       <c r="C20">
-        <v>0.002138708016299696</v>
+        <v>0.03997430836945763</v>
       </c>
       <c r="D20">
-        <v>0.03467167621422815</v>
+        <v>-0.01403867019083364</v>
       </c>
       <c r="E20">
-        <v>0.0169171373748417</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02950950328985256</v>
+      </c>
+      <c r="F20">
+        <v>0.01089030318406632</v>
+      </c>
+      <c r="G20">
+        <v>0.1058904695587857</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01617063862401319</v>
+        <v>-0.01292821210612155</v>
       </c>
       <c r="C21">
-        <v>0.01211615302559655</v>
+        <v>0.04098181537429009</v>
       </c>
       <c r="D21">
-        <v>0.03972995759345554</v>
+        <v>-0.01863835350860161</v>
       </c>
       <c r="E21">
-        <v>0.0003101664308907268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.04194148615904519</v>
+      </c>
+      <c r="F21">
+        <v>-0.002343534575533743</v>
+      </c>
+      <c r="G21">
+        <v>0.1302917870578737</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0007171539862383665</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0002423530617804064</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-0.0002969315474532816</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.001069800272289559</v>
+      </c>
+      <c r="F22">
+        <v>-0.000604775403425087</v>
+      </c>
+      <c r="G22">
+        <v>0.001951430079441239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0007215020076764177</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0002419750796985322</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-0.0002970612527637546</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.001075533217194298</v>
+      </c>
+      <c r="F23">
+        <v>-0.0006033544227422503</v>
+      </c>
+      <c r="G23">
+        <v>0.001963046110972479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.003806702505607547</v>
+        <v>-0.02861116289422376</v>
       </c>
       <c r="C24">
-        <v>-0.006558412704504066</v>
+        <v>0.05196337401654184</v>
       </c>
       <c r="D24">
-        <v>0.05158720703207542</v>
+        <v>-0.007049361249793989</v>
       </c>
       <c r="E24">
-        <v>-0.01030505112782063</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.005491624201095629</v>
+      </c>
+      <c r="F24">
+        <v>-0.01346011232454524</v>
+      </c>
+      <c r="G24">
+        <v>0.08562828782199948</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01332091632911159</v>
+        <v>-0.04336036544532344</v>
       </c>
       <c r="C25">
-        <v>0.01023900114079169</v>
+        <v>0.0596166231118318</v>
       </c>
       <c r="D25">
-        <v>0.06124207135758509</v>
+        <v>-0.01102725771624205</v>
       </c>
       <c r="E25">
-        <v>-0.01234227381944476</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.001473332537434265</v>
+      </c>
+      <c r="F25">
+        <v>-0.00701685395315526</v>
+      </c>
+      <c r="G25">
+        <v>0.09579724525615876</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02333196701944346</v>
+        <v>-0.01379560935684614</v>
       </c>
       <c r="C26">
-        <v>0.002939029633575216</v>
+        <v>0.0119681684209526</v>
       </c>
       <c r="D26">
-        <v>0.003391527970930804</v>
+        <v>-0.02406997552925057</v>
       </c>
       <c r="E26">
-        <v>-0.006838551221116857</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.007472644515231852</v>
+      </c>
+      <c r="F26">
+        <v>0.007687581100380649</v>
+      </c>
+      <c r="G26">
+        <v>0.07873429805789715</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.06693193921552076</v>
+        <v>-0.1255821787089855</v>
       </c>
       <c r="C28">
-        <v>0.2428707792765798</v>
+        <v>-0.2369707799918651</v>
       </c>
       <c r="D28">
-        <v>-0.1220350051103739</v>
+        <v>0.005603483356339695</v>
       </c>
       <c r="E28">
-        <v>-0.002832038055403467</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.006625023457082458</v>
+      </c>
+      <c r="F28">
+        <v>0.01478565558229636</v>
+      </c>
+      <c r="G28">
+        <v>0.05667348181907476</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01093057195186133</v>
+        <v>-0.009870317181089614</v>
       </c>
       <c r="C29">
-        <v>0.01730033221446221</v>
+        <v>0.02329056609143679</v>
       </c>
       <c r="D29">
-        <v>0.02136463291574491</v>
+        <v>-0.008861601878675813</v>
       </c>
       <c r="E29">
-        <v>-0.0003501475536329392</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.001112761792950708</v>
+      </c>
+      <c r="F29">
+        <v>0.01784561379559455</v>
+      </c>
+      <c r="G29">
+        <v>0.09186177072522353</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02323963859203178</v>
+        <v>-0.04168375268621842</v>
       </c>
       <c r="C30">
-        <v>-0.01026421541935334</v>
+        <v>0.07015542289417268</v>
       </c>
       <c r="D30">
-        <v>0.09964448859045609</v>
+        <v>-0.02862861305298919</v>
       </c>
       <c r="E30">
-        <v>0.03383181662116386</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05257390331365738</v>
+      </c>
+      <c r="F30">
+        <v>-0.04686438927688429</v>
+      </c>
+      <c r="G30">
+        <v>0.1043108230857965</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01198539054293821</v>
+        <v>-0.05306692850944497</v>
       </c>
       <c r="C31">
-        <v>0.02926009545532196</v>
+        <v>0.03801816611006201</v>
       </c>
       <c r="D31">
-        <v>0.0391257082991058</v>
+        <v>-0.003812006467558718</v>
       </c>
       <c r="E31">
-        <v>-0.003854283060943927</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.001782643692612802</v>
+      </c>
+      <c r="F31">
+        <v>0.0398798075329354</v>
+      </c>
+      <c r="G31">
+        <v>0.09295427147290987</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.004918197247250664</v>
+        <v>-0.001501310628944337</v>
       </c>
       <c r="C32">
-        <v>0.01405313339262207</v>
+        <v>0.02575723758554437</v>
       </c>
       <c r="D32">
-        <v>0.01071261826549645</v>
+        <v>0.00338594893669701</v>
       </c>
       <c r="E32">
-        <v>-0.05015656256139633</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01974082335380343</v>
+      </c>
+      <c r="F32">
+        <v>-0.04083155396270823</v>
+      </c>
+      <c r="G32">
+        <v>0.0936523873982925</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01483214900986375</v>
+        <v>-0.02813572412688948</v>
       </c>
       <c r="C33">
-        <v>0.01392475825500956</v>
+        <v>0.05121242889536178</v>
       </c>
       <c r="D33">
-        <v>0.04312088754132266</v>
+        <v>-0.01571397494665666</v>
       </c>
       <c r="E33">
-        <v>0.02183087422278583</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03603832932407301</v>
+      </c>
+      <c r="F33">
+        <v>-0.01803459849838252</v>
+      </c>
+      <c r="G33">
+        <v>0.1433665484380333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.001891973985145105</v>
+        <v>-0.04068272146169167</v>
       </c>
       <c r="C34">
-        <v>0.0160124086966876</v>
+        <v>0.06189375042599922</v>
       </c>
       <c r="D34">
-        <v>0.06048550392925654</v>
+        <v>0.004880379362106189</v>
       </c>
       <c r="E34">
-        <v>-0.02149024963031667</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0004339826689124298</v>
+      </c>
+      <c r="F34">
+        <v>-0.02009517794174016</v>
+      </c>
+      <c r="G34">
+        <v>0.09202699671317943</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01425500641577982</v>
+        <v>-0.01629480544761777</v>
       </c>
       <c r="C36">
-        <v>0.01443226283139834</v>
+        <v>0.009666628152437216</v>
       </c>
       <c r="D36">
-        <v>0.007205930928715703</v>
+        <v>-0.01223913056550929</v>
       </c>
       <c r="E36">
-        <v>-0.004709976510136982</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.004149755107744848</v>
+      </c>
+      <c r="F36">
+        <v>0.006689682976420604</v>
+      </c>
+      <c r="G36">
+        <v>0.08532268450236691</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.0004079635890255827</v>
+        <v>-0.03212341044264186</v>
       </c>
       <c r="C38">
-        <v>0.02781131953370186</v>
+        <v>0.03215222519416492</v>
       </c>
       <c r="D38">
-        <v>0.05193723647752866</v>
+        <v>0.007535988137535894</v>
       </c>
       <c r="E38">
-        <v>-0.009490087325995182</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.002912980605836231</v>
+      </c>
+      <c r="F38">
+        <v>0.01915222903314593</v>
+      </c>
+      <c r="G38">
+        <v>0.08094975344595531</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.002228184185077012</v>
+        <v>-0.03688679955926487</v>
       </c>
       <c r="C39">
-        <v>-0.028568052423208</v>
+        <v>0.0824390787190484</v>
       </c>
       <c r="D39">
-        <v>0.1032542912898257</v>
+        <v>-0.0113777775474681</v>
       </c>
       <c r="E39">
-        <v>0.006836940502814209</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02109425100773961</v>
+      </c>
+      <c r="F39">
+        <v>-0.02399939735586716</v>
+      </c>
+      <c r="G39">
+        <v>0.08441994959907878</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.0127415125332741</v>
+        <v>-0.01503338530553782</v>
       </c>
       <c r="C40">
-        <v>0.007895467900742312</v>
+        <v>0.04324462367795354</v>
       </c>
       <c r="D40">
-        <v>0.04264877802469752</v>
+        <v>-0.0147447903218352</v>
       </c>
       <c r="E40">
-        <v>-0.01411471343218896</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02007230958211145</v>
+      </c>
+      <c r="F40">
+        <v>0.01523004106981867</v>
+      </c>
+      <c r="G40">
+        <v>0.1212799947591773</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.008420842913916739</v>
+        <v>-0.02032343455181316</v>
       </c>
       <c r="C41">
-        <v>0.02143111206328107</v>
+        <v>0.002524385772405488</v>
       </c>
       <c r="D41">
-        <v>-0.01023783137799873</v>
+        <v>-0.00429711505825035</v>
       </c>
       <c r="E41">
-        <v>-0.007322333182893698</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.002795906089039962</v>
+      </c>
+      <c r="F41">
+        <v>0.01403137964777171</v>
+      </c>
+      <c r="G41">
+        <v>0.0733570163304494</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.08819973905304292</v>
+        <v>-0.009811329783431928</v>
       </c>
       <c r="C42">
-        <v>-0.03874333600088389</v>
+        <v>0.03141326913788507</v>
       </c>
       <c r="D42">
-        <v>0.1495194172831492</v>
+        <v>-0.0903014081196811</v>
       </c>
       <c r="E42">
-        <v>0.3716368332885562</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.01776506450731899</v>
+      </c>
+      <c r="F42">
+        <v>0.04323784789679201</v>
+      </c>
+      <c r="G42">
+        <v>-0.1239004927351047</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.009813019761455793</v>
+        <v>-0.03422585878192256</v>
       </c>
       <c r="C43">
-        <v>0.02443592682815379</v>
+        <v>0.01824396467608831</v>
       </c>
       <c r="D43">
-        <v>-0.005077412710490993</v>
+        <v>-0.006021443796344651</v>
       </c>
       <c r="E43">
-        <v>-0.008555372762726976</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01675864329941219</v>
+      </c>
+      <c r="F43">
+        <v>0.002969234583359695</v>
+      </c>
+      <c r="G43">
+        <v>0.1073780896063956</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003165383837217686</v>
+        <v>-0.01272425836654941</v>
       </c>
       <c r="C44">
-        <v>-2.787144019261189e-05</v>
+        <v>0.0598811959737136</v>
       </c>
       <c r="D44">
-        <v>0.05619806237566725</v>
+        <v>-0.006671187338363514</v>
       </c>
       <c r="E44">
-        <v>-0.0140481646064746</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01797842760278116</v>
+      </c>
+      <c r="F44">
+        <v>0.008051327547569381</v>
+      </c>
+      <c r="G44">
+        <v>0.1013531814642065</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01210145898944068</v>
+        <v>-0.008165854386099585</v>
       </c>
       <c r="C46">
-        <v>0.009602096102969014</v>
+        <v>0.01802203499908645</v>
       </c>
       <c r="D46">
-        <v>0.007659963724510596</v>
+        <v>-0.01255343512167538</v>
       </c>
       <c r="E46">
-        <v>0.006662175557216883</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.001385995133071668</v>
+      </c>
+      <c r="F46">
+        <v>0.01686991787324789</v>
+      </c>
+      <c r="G46">
+        <v>0.09541911892938067</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.007512115913962265</v>
+        <v>-0.07753866628711958</v>
       </c>
       <c r="C47">
-        <v>0.03863909637678638</v>
+        <v>0.06715362343999916</v>
       </c>
       <c r="D47">
-        <v>0.07652009313082662</v>
+        <v>0.005130990194346781</v>
       </c>
       <c r="E47">
-        <v>-0.01159844610817273</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.006553225301820642</v>
+      </c>
+      <c r="F47">
+        <v>0.0546750004975503</v>
+      </c>
+      <c r="G47">
+        <v>0.08185253643017661</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.005545968541208415</v>
+        <v>-0.01947795505643432</v>
       </c>
       <c r="C48">
-        <v>0.01821916860292032</v>
+        <v>0.01285684747330428</v>
       </c>
       <c r="D48">
-        <v>0.01987087706656771</v>
+        <v>-0.001926652084910001</v>
       </c>
       <c r="E48">
-        <v>0.0008446828821337591</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.002271723492741796</v>
+      </c>
+      <c r="F48">
+        <v>0.01935401776437621</v>
+      </c>
+      <c r="G48">
+        <v>0.08793017577593552</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.009872076428582887</v>
+        <v>-0.07478656256992926</v>
       </c>
       <c r="C50">
-        <v>0.04074828350041</v>
+        <v>0.07204140455366637</v>
       </c>
       <c r="D50">
-        <v>0.07394000127766183</v>
+        <v>0.002471075690560734</v>
       </c>
       <c r="E50">
-        <v>-0.02893897995081267</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.00654547946132441</v>
+      </c>
+      <c r="F50">
+        <v>0.05505167459907716</v>
+      </c>
+      <c r="G50">
+        <v>0.09338913492392788</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.008630712774500376</v>
+        <v>-0.0148100301062838</v>
       </c>
       <c r="C51">
-        <v>0.0111811871397678</v>
+        <v>0.03735958106106702</v>
       </c>
       <c r="D51">
-        <v>0.02366168320851321</v>
+        <v>-0.01025805497626841</v>
       </c>
       <c r="E51">
-        <v>-0.009571386081370896</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01827831391610115</v>
+      </c>
+      <c r="F51">
+        <v>-0.02272494267669184</v>
+      </c>
+      <c r="G51">
+        <v>0.1184181200287792</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.01067879176344871</v>
+        <v>-0.08200842179101117</v>
       </c>
       <c r="C53">
-        <v>0.03943370052443831</v>
+        <v>0.08571296528239887</v>
       </c>
       <c r="D53">
-        <v>0.1309541938976063</v>
+        <v>0.003604459458098764</v>
       </c>
       <c r="E53">
-        <v>-0.01614209800155691</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02458479921883167</v>
+      </c>
+      <c r="F53">
+        <v>0.0668420276069726</v>
+      </c>
+      <c r="G53">
+        <v>0.08090774212648649</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.006534607806455776</v>
+        <v>-0.03147775597965293</v>
       </c>
       <c r="C54">
-        <v>0.04092113133729491</v>
+        <v>0.01742831420713044</v>
       </c>
       <c r="D54">
-        <v>0.001197922709604363</v>
+        <v>0.001571709841117276</v>
       </c>
       <c r="E54">
-        <v>0.010146816296169</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01298680105743231</v>
+      </c>
+      <c r="F54">
+        <v>0.004563938816265675</v>
+      </c>
+      <c r="G54">
+        <v>0.09765735976336599</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.006005369915087324</v>
+        <v>-0.07213708201854825</v>
       </c>
       <c r="C55">
-        <v>0.02683172437124836</v>
+        <v>0.06954569815060692</v>
       </c>
       <c r="D55">
-        <v>0.107092353801611</v>
+        <v>0.005096425545902245</v>
       </c>
       <c r="E55">
-        <v>-0.005804455114599437</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02163091953951541</v>
+      </c>
+      <c r="F55">
+        <v>0.06334626283664135</v>
+      </c>
+      <c r="G55">
+        <v>0.05874177350315222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.01096521624697641</v>
+        <v>-0.1376915809515447</v>
       </c>
       <c r="C56">
-        <v>0.05916552108346136</v>
+        <v>0.1084385493832176</v>
       </c>
       <c r="D56">
-        <v>0.1621913163860197</v>
+        <v>0.012771481594533</v>
       </c>
       <c r="E56">
-        <v>-0.01768578140265245</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03022342687132443</v>
+      </c>
+      <c r="F56">
+        <v>0.0818151842156742</v>
+      </c>
+      <c r="G56">
+        <v>0.03062196511586322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.0250803582169417</v>
+        <v>-0.006684621684265912</v>
       </c>
       <c r="C57">
-        <v>0.004764302085794928</v>
+        <v>0.008741238045712358</v>
       </c>
       <c r="D57">
-        <v>0.042880450108495</v>
+        <v>-0.02343400791368964</v>
       </c>
       <c r="E57">
-        <v>0.02767403766907272</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02545287020827582</v>
+      </c>
+      <c r="F57">
+        <v>-0.01099378510115307</v>
+      </c>
+      <c r="G57">
+        <v>0.02910073793850797</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01316383219602832</v>
+        <v>-0.05329300620946582</v>
       </c>
       <c r="C58">
-        <v>0.03855723891622322</v>
+        <v>0.05237185481254793</v>
       </c>
       <c r="D58">
-        <v>0.1391585459939456</v>
+        <v>-0.0236275626737515</v>
       </c>
       <c r="E58">
-        <v>0.717008171722715</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.937211130436425</v>
+      </c>
+      <c r="F58">
+        <v>0.2191205227314651</v>
+      </c>
+      <c r="G58">
+        <v>-0.1532302216877444</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.06803170712686324</v>
+        <v>-0.160308434574075</v>
       </c>
       <c r="C59">
-        <v>0.2655121572429281</v>
+        <v>-0.2034609388328142</v>
       </c>
       <c r="D59">
-        <v>-0.1056348631207659</v>
+        <v>0.01112022387839181</v>
       </c>
       <c r="E59">
-        <v>-0.01681653925214129</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01854638380326024</v>
+      </c>
+      <c r="F59">
+        <v>-0.001000716325528197</v>
+      </c>
+      <c r="G59">
+        <v>0.04373186030347015</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.06120462297940109</v>
+        <v>-0.2869321261185417</v>
       </c>
       <c r="C60">
-        <v>0.1610029268339169</v>
+        <v>0.1064412220344945</v>
       </c>
       <c r="D60">
-        <v>0.1370787336465457</v>
+        <v>-0.01152728272238989</v>
       </c>
       <c r="E60">
-        <v>-0.06421407390611872</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.009934683404745915</v>
+      </c>
+      <c r="F60">
+        <v>-0.3438673613817089</v>
+      </c>
+      <c r="G60">
+        <v>-0.146479881613044</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003271703823480558</v>
+        <v>-0.03821714706503044</v>
       </c>
       <c r="C61">
-        <v>-0.0008018639137747249</v>
+        <v>0.06748599548183676</v>
       </c>
       <c r="D61">
-        <v>0.07561580240921076</v>
+        <v>-0.005134787481187919</v>
       </c>
       <c r="E61">
-        <v>-0.009755436153395431</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01354870527545916</v>
+      </c>
+      <c r="F61">
+        <v>-0.01556668352637136</v>
+      </c>
+      <c r="G61">
+        <v>0.08844287825305489</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.008820126540029236</v>
+        <v>-0.01524670463842671</v>
       </c>
       <c r="C63">
-        <v>0.004785730066155077</v>
+        <v>0.0305991750585482</v>
       </c>
       <c r="D63">
-        <v>0.02866567473751903</v>
+        <v>-0.008522507065674671</v>
       </c>
       <c r="E63">
-        <v>-0.01627255699328029</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.00169632755558071</v>
+      </c>
+      <c r="F63">
+        <v>0.01643011496550268</v>
+      </c>
+      <c r="G63">
+        <v>0.09144722930396471</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.01125870000473164</v>
+        <v>-0.04768248672239978</v>
       </c>
       <c r="C64">
-        <v>0.02311412402291756</v>
+        <v>0.04717640411464669</v>
       </c>
       <c r="D64">
-        <v>0.06230379928190965</v>
+        <v>-0.005985471953670629</v>
       </c>
       <c r="E64">
-        <v>-0.004906207922809801</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.0005670307602742012</v>
+      </c>
+      <c r="F64">
+        <v>-0.006656067950781601</v>
+      </c>
+      <c r="G64">
+        <v>0.08461509718203863</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01805796235796563</v>
+        <v>-0.07483687211938699</v>
       </c>
       <c r="C65">
-        <v>-0.002024703331677546</v>
+        <v>0.0600672223798112</v>
       </c>
       <c r="D65">
-        <v>0.1102269354446501</v>
+        <v>-0.01639787607847105</v>
       </c>
       <c r="E65">
-        <v>-0.025546178260648</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.0323959297993532</v>
+      </c>
+      <c r="F65">
+        <v>-0.03125333867932675</v>
+      </c>
+      <c r="G65">
+        <v>0.03198370496462449</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.002773175143277621</v>
+        <v>-0.05185463142718653</v>
       </c>
       <c r="C66">
-        <v>-0.02555646621493739</v>
+        <v>0.1099166240180969</v>
       </c>
       <c r="D66">
-        <v>0.1359939010850292</v>
+        <v>-0.01131428956939754</v>
       </c>
       <c r="E66">
-        <v>0.0009283070129881822</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.03019348578810322</v>
+      </c>
+      <c r="F66">
+        <v>-0.03629515065028052</v>
+      </c>
+      <c r="G66">
+        <v>0.1001350348234668</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.008325581752967454</v>
+        <v>-0.05533231644228761</v>
       </c>
       <c r="C67">
-        <v>0.04829854629658496</v>
+        <v>0.03556588825591749</v>
       </c>
       <c r="D67">
-        <v>0.06793820478609772</v>
+        <v>0.005947905327941057</v>
       </c>
       <c r="E67">
-        <v>-0.01189313840818143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003628756496409038</v>
+      </c>
+      <c r="F67">
+        <v>0.0182996016087769</v>
+      </c>
+      <c r="G67">
+        <v>0.07303254719901227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.08249967035093445</v>
+        <v>-0.1539457248085267</v>
       </c>
       <c r="C68">
-        <v>0.2471805320384127</v>
+        <v>-0.2694308086587061</v>
       </c>
       <c r="D68">
-        <v>-0.1538504348372129</v>
+        <v>-0.006379901169046112</v>
       </c>
       <c r="E68">
-        <v>0.0253877679336957</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01245319408961797</v>
+      </c>
+      <c r="F68">
+        <v>0.03364206988756907</v>
+      </c>
+      <c r="G68">
+        <v>0.03166879583368977</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.003294601530464917</v>
+        <v>-0.08217690299221282</v>
       </c>
       <c r="C69">
-        <v>0.03527031959372442</v>
+        <v>0.07092396401284369</v>
       </c>
       <c r="D69">
-        <v>0.08069476242483835</v>
+        <v>0.008997648071122851</v>
       </c>
       <c r="E69">
-        <v>-0.02421894421392864</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02295977817987155</v>
+      </c>
+      <c r="F69">
+        <v>0.03630139903879324</v>
+      </c>
+      <c r="G69">
+        <v>0.09119545401052899</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.06315990628363748</v>
+        <v>-0.1402398541239523</v>
       </c>
       <c r="C71">
-        <v>0.2108236456134717</v>
+        <v>-0.227640212602563</v>
       </c>
       <c r="D71">
-        <v>-0.101870222352659</v>
+        <v>0.002245528452168135</v>
       </c>
       <c r="E71">
-        <v>0.02267930198414488</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03358954990324494</v>
+      </c>
+      <c r="F71">
+        <v>0.018759369601132</v>
+      </c>
+      <c r="G71">
+        <v>0.06703357040910921</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.001064562497308491</v>
+        <v>-0.08484560640310168</v>
       </c>
       <c r="C72">
-        <v>0.027091293346727</v>
+        <v>0.07276835717812774</v>
       </c>
       <c r="D72">
-        <v>0.1088959247705849</v>
+        <v>0.008471593662160336</v>
       </c>
       <c r="E72">
-        <v>-0.03250507818229473</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.005104707713068972</v>
+      </c>
+      <c r="F72">
+        <v>-0.03841792951642458</v>
+      </c>
+      <c r="G72">
+        <v>0.07787207879647791</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.07567309514635445</v>
+        <v>-0.3765898106528482</v>
       </c>
       <c r="C73">
-        <v>0.1767553909070359</v>
+        <v>0.1168205677296624</v>
       </c>
       <c r="D73">
-        <v>0.2522177348591289</v>
+        <v>-0.01957310240385823</v>
       </c>
       <c r="E73">
-        <v>-0.03600733935171214</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.05804885632324513</v>
+      </c>
+      <c r="F73">
+        <v>-0.575397971212626</v>
+      </c>
+      <c r="G73">
+        <v>-0.2659305767644404</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.009276751199557605</v>
+        <v>-0.104973450765078</v>
       </c>
       <c r="C74">
-        <v>0.05414232010236739</v>
+        <v>0.1091686180300193</v>
       </c>
       <c r="D74">
-        <v>0.173615354535939</v>
+        <v>0.009372873139017648</v>
       </c>
       <c r="E74">
-        <v>-0.01151256683433813</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.006112527286311025</v>
+      </c>
+      <c r="F74">
+        <v>0.06791366457789558</v>
+      </c>
+      <c r="G74">
+        <v>0.07432672060719098</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.02432479143543408</v>
+        <v>-0.248855473106678</v>
       </c>
       <c r="C75">
-        <v>0.1325579699846704</v>
+        <v>0.1520618460181791</v>
       </c>
       <c r="D75">
-        <v>0.3035394864182667</v>
+        <v>0.03089200444950449</v>
       </c>
       <c r="E75">
-        <v>-0.01380413118696209</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05458596235746582</v>
+      </c>
+      <c r="F75">
+        <v>0.1807173505136462</v>
+      </c>
+      <c r="G75">
+        <v>-0.03930511809364754</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.007748619021821939</v>
+        <v>-0.1200232099378687</v>
       </c>
       <c r="C76">
-        <v>0.07584788617946854</v>
+        <v>0.1100390058770643</v>
       </c>
       <c r="D76">
-        <v>0.2210629538008296</v>
+        <v>0.01871965192981523</v>
       </c>
       <c r="E76">
-        <v>-0.04469128340592039</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02894279614094643</v>
+      </c>
+      <c r="F76">
+        <v>0.1118004230188092</v>
+      </c>
+      <c r="G76">
+        <v>0.05343643177084414</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01509091287412899</v>
+        <v>-0.06719724300432627</v>
       </c>
       <c r="C77">
-        <v>0.01208313812789485</v>
+        <v>0.06041578772293444</v>
       </c>
       <c r="D77">
-        <v>0.06673859595952931</v>
+        <v>-0.01130765830000712</v>
       </c>
       <c r="E77">
-        <v>0.007608844318829192</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04072692484571955</v>
+      </c>
+      <c r="F77">
+        <v>-0.01652831274589364</v>
+      </c>
+      <c r="G77">
+        <v>0.05789443195109702</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004970311073852924</v>
+        <v>-0.04210722498391149</v>
       </c>
       <c r="C78">
-        <v>0.004241964066760156</v>
+        <v>0.05181490051700969</v>
       </c>
       <c r="D78">
-        <v>0.05760972702741053</v>
+        <v>-0.005289538271542789</v>
       </c>
       <c r="E78">
-        <v>0.001774482085005101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02171992423597759</v>
+      </c>
+      <c r="F78">
+        <v>-0.03703965445388722</v>
+      </c>
+      <c r="G78">
+        <v>0.08591911877616602</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01309452926984012</v>
+        <v>-0.04309044555308107</v>
       </c>
       <c r="C80">
-        <v>0.01608979207264876</v>
+        <v>0.0739862587454802</v>
       </c>
       <c r="D80">
-        <v>0.1527065395671756</v>
+        <v>-0.01148279213276388</v>
       </c>
       <c r="E80">
-        <v>-0.5395766635732463</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03239772290231296</v>
+      </c>
+      <c r="F80">
+        <v>-0.03057948822528276</v>
+      </c>
+      <c r="G80">
+        <v>0.3506975401360475</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.01604503291845575</v>
+        <v>-0.1387058493122681</v>
       </c>
       <c r="C81">
-        <v>0.082059981681494</v>
+        <v>0.09640698796436596</v>
       </c>
       <c r="D81">
-        <v>0.1794667770559965</v>
+        <v>0.01516754671186988</v>
       </c>
       <c r="E81">
-        <v>-0.02956271433673827</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03283522871335801</v>
+      </c>
+      <c r="F81">
+        <v>0.1319500516952008</v>
+      </c>
+      <c r="G81">
+        <v>0.02269077208600049</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.128219067444275</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07373384359237245</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.008329427748947066</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08952846936411644</v>
+      </c>
+      <c r="F82">
+        <v>0.04331860355851126</v>
+      </c>
+      <c r="G82">
+        <v>0.05602797271070872</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.008909912737562285</v>
+        <v>-0.03665302592481622</v>
       </c>
       <c r="C83">
-        <v>0.01676958795882524</v>
+        <v>0.03018276153008642</v>
       </c>
       <c r="D83">
-        <v>0.03859104344386768</v>
+        <v>-0.005656051342277949</v>
       </c>
       <c r="E83">
-        <v>0.009691564961041533</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.0275461210083055</v>
+      </c>
+      <c r="F83">
+        <v>-0.03260294984609584</v>
+      </c>
+      <c r="G83">
+        <v>0.06043456545405052</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.02728991570252271</v>
+        <v>-0.2134629385944724</v>
       </c>
       <c r="C85">
-        <v>0.09475594759133933</v>
+        <v>0.145047235495855</v>
       </c>
       <c r="D85">
-        <v>0.2672017525940215</v>
+        <v>0.01802168257772208</v>
       </c>
       <c r="E85">
-        <v>-0.024947312986925</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09412535778209864</v>
+      </c>
+      <c r="F85">
+        <v>0.1360531038282066</v>
+      </c>
+      <c r="G85">
+        <v>-0.0971548705112515</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01100815983195136</v>
+        <v>-0.01378558927230247</v>
       </c>
       <c r="C86">
-        <v>0.01980766359565283</v>
+        <v>0.0303152294723767</v>
       </c>
       <c r="D86">
-        <v>0.06367992102676671</v>
+        <v>-0.01238926714694067</v>
       </c>
       <c r="E86">
-        <v>0.02285639274419643</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04860330106634232</v>
+      </c>
+      <c r="F86">
+        <v>-0.03305894682069523</v>
+      </c>
+      <c r="G86">
+        <v>0.1797156476721631</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.006969356345254862</v>
+        <v>-0.02234402577482898</v>
       </c>
       <c r="C87">
-        <v>-0.006389642481260355</v>
+        <v>0.02382063977161425</v>
       </c>
       <c r="D87">
-        <v>0.05297413537639913</v>
+        <v>-0.01179005689756571</v>
       </c>
       <c r="E87">
-        <v>0.02023922704510237</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08613182013457381</v>
+      </c>
+      <c r="F87">
+        <v>-0.01675615782799001</v>
+      </c>
+      <c r="G87">
+        <v>0.1133277999564436</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.03195311408073026</v>
+        <v>-0.09260563821335456</v>
       </c>
       <c r="C88">
-        <v>0.03004754473705184</v>
+        <v>0.06793827721478107</v>
       </c>
       <c r="D88">
-        <v>0.06141152998471093</v>
+        <v>-0.02252104553383568</v>
       </c>
       <c r="E88">
-        <v>-0.00457726870565907</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.007358545389259896</v>
+      </c>
+      <c r="F88">
+        <v>0.01677759539552347</v>
+      </c>
+      <c r="G88">
+        <v>0.07999407991427049</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1204158341144577</v>
+        <v>-0.2335330527701757</v>
       </c>
       <c r="C89">
-        <v>0.3941031385893074</v>
+        <v>-0.3661018206634649</v>
       </c>
       <c r="D89">
-        <v>-0.1848686598975427</v>
+        <v>-0.0004617459263960865</v>
       </c>
       <c r="E89">
-        <v>-0.02774608162541818</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01336145233064471</v>
+      </c>
+      <c r="F89">
+        <v>0.02601676549221991</v>
+      </c>
+      <c r="G89">
+        <v>0.0698088529583694</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.09438545333098797</v>
+        <v>-0.2087250236593939</v>
       </c>
       <c r="C90">
-        <v>0.3154561355893256</v>
+        <v>-0.3184200918878632</v>
       </c>
       <c r="D90">
-        <v>-0.1700041315401983</v>
+        <v>0.004276914907604256</v>
       </c>
       <c r="E90">
-        <v>0.01155498550634693</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.003090316559285069</v>
+      </c>
+      <c r="F90">
+        <v>0.05525801223097741</v>
+      </c>
+      <c r="G90">
+        <v>0.036363634025907</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.01923975268010371</v>
+        <v>-0.1869673502904103</v>
       </c>
       <c r="C91">
-        <v>0.1156840655978002</v>
+        <v>0.1392863016634951</v>
       </c>
       <c r="D91">
-        <v>0.2249112038619249</v>
+        <v>0.02244946873392943</v>
       </c>
       <c r="E91">
-        <v>-0.02530876978151757</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05834824881654503</v>
+      </c>
+      <c r="F91">
+        <v>0.1475003917108591</v>
+      </c>
+      <c r="G91">
+        <v>0.0182869118679624</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.06062216321037646</v>
+        <v>-0.1997472487555733</v>
       </c>
       <c r="C92">
-        <v>0.3142759933499574</v>
+        <v>-0.25621007871213</v>
       </c>
       <c r="D92">
-        <v>-0.06894742289752495</v>
+        <v>0.03749439495371759</v>
       </c>
       <c r="E92">
-        <v>0.04644471247346123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.03965571371084872</v>
+      </c>
+      <c r="F92">
+        <v>0.05506370673681708</v>
+      </c>
+      <c r="G92">
+        <v>0.1326389654773081</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.09467583764309183</v>
+        <v>-0.2324003197326686</v>
       </c>
       <c r="C93">
-        <v>0.3367623552524489</v>
+        <v>-0.3153169669637747</v>
       </c>
       <c r="D93">
-        <v>-0.1398530554503102</v>
+        <v>0.01088710663776293</v>
       </c>
       <c r="E93">
-        <v>0.02392439142825665</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.009154801562141091</v>
+      </c>
+      <c r="F93">
+        <v>0.03970626343203449</v>
+      </c>
+      <c r="G93">
+        <v>0.04802493487537121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.0555971414279118</v>
+        <v>-0.3154962807988003</v>
       </c>
       <c r="C94">
-        <v>0.1685609942519542</v>
+        <v>0.1753217140424311</v>
       </c>
       <c r="D94">
-        <v>0.2727678659464315</v>
+        <v>0.0173750870168087</v>
       </c>
       <c r="E94">
-        <v>-0.05266559092790803</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1705269616938038</v>
+      </c>
+      <c r="F94">
+        <v>0.4843194914739744</v>
+      </c>
+      <c r="G94">
+        <v>-0.381848856068389</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.001146221807465849</v>
+        <v>-0.1012396096664978</v>
       </c>
       <c r="C95">
-        <v>0.03000188524776254</v>
+        <v>0.08614236038670103</v>
       </c>
       <c r="D95">
-        <v>0.1175360815500674</v>
+        <v>0.01097209456263941</v>
       </c>
       <c r="E95">
-        <v>0.1374303923141309</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06846370834975177</v>
+      </c>
+      <c r="F95">
+        <v>-0.2038865209911121</v>
+      </c>
+      <c r="G95">
+        <v>-0.1011828305056257</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.02960330905177702</v>
+        <v>-0.1977393245277063</v>
       </c>
       <c r="C98">
-        <v>0.1473881543428874</v>
+        <v>0.04490584076780722</v>
       </c>
       <c r="D98">
-        <v>0.1461219319121138</v>
+        <v>0.01385603907286583</v>
       </c>
       <c r="E98">
-        <v>0.0259080757474653</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06245037815479668</v>
+      </c>
+      <c r="F98">
+        <v>-0.2398003495699847</v>
+      </c>
+      <c r="G98">
+        <v>-0.008216058124726037</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +2994,62 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01072577653465046</v>
+        <v>-0.009649074831718014</v>
       </c>
       <c r="C101">
-        <v>0.01713822522895776</v>
+        <v>0.0233123933662202</v>
       </c>
       <c r="D101">
-        <v>0.02129276245898237</v>
+        <v>-0.00870766581759224</v>
       </c>
       <c r="E101">
-        <v>-0.0004428777415437325</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.0009975251051594582</v>
+      </c>
+      <c r="F101">
+        <v>0.01879355014094708</v>
+      </c>
+      <c r="G101">
+        <v>0.09096824147406907</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.02129583196499911</v>
+        <v>-0.1172098821348798</v>
       </c>
       <c r="C102">
-        <v>0.0472043883132413</v>
+        <v>0.08343358183356323</v>
       </c>
       <c r="D102">
-        <v>0.1285342230165947</v>
+        <v>-0.0006949176643753316</v>
       </c>
       <c r="E102">
-        <v>-0.01269780319187705</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.0339487727089048</v>
+      </c>
+      <c r="F102">
+        <v>0.0419037812690085</v>
+      </c>
+      <c r="G102">
+        <v>0.007380096315179029</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,22 +3063,34 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9534057997970221</v>
+        <v>-0.02125203339883992</v>
       </c>
       <c r="C104">
-        <v>-0.2688927818044443</v>
+        <v>-0.02879605010942913</v>
       </c>
       <c r="D104">
-        <v>-0.03181334032672146</v>
+        <v>-0.9878429353588803</v>
       </c>
       <c r="E104">
-        <v>-0.03076019106533679</v>
+        <v>0.04616734571642532</v>
+      </c>
+      <c r="F104">
+        <v>0.03564979285397865</v>
+      </c>
+      <c r="G104">
+        <v>-0.03250794371718129</v>
       </c>
     </row>
   </sheetData>
